--- a/tests/uploads/testas.xlsx
+++ b/tests/uploads/testas.xlsx
@@ -14,36 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Date</t>
+    <t>RandomColumn1</t>
   </si>
   <si>
-    <t>Account Nr</t>
-  </si>
-  <si>
-    <t>Correspondent</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Credit in transaction currency</t>
-  </si>
-  <si>
-    <t>Debit in transaction currency</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>LT123</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Paslauga</t>
+    <t>RandomColumn2</t>
   </si>
 </sst>
 </file>
@@ -401,50 +377,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
